--- a/Data/EC/NIT-9000139037.xlsx
+++ b/Data/EC/NIT-9000139037.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65346659-EF17-46ED-8706-B7C9496203D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92EC4E22-8688-480C-9277-6B40F0041A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DFE53511-880E-4B2A-89C4-183FF8077F90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2CC0FD78-5D75-48B5-A236-79238FA3BD4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,58 +71,64 @@
     <t>YORNADY DE JESUS MONTES CONTRERAS</t>
   </si>
   <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
+    <t>JORDANYS DE JESUS MONTES CONTRERAS</t>
+  </si>
+  <si>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -221,7 +227,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -234,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -436,23 +442,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,10 +486,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36073CAD-48F3-AE12-C85C-81835E94F7B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B23A5F-9C7E-2738-8156-1996822F19BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,8 +893,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72833F9C-F3DB-4942-A055-93DB6E579116}">
-  <dimension ref="B2:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC61879-9242-40AC-8691-52469D0552B9}">
+  <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -899,7 +905,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -912,7 +918,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -957,7 +963,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -989,12 +995,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>936000</v>
+        <v>988000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1005,17 +1011,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1042,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1443,56 +1449,79 @@
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="22" t="s">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G33" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="H38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="F33" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G34" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C39" s="32"/>
       <c r="H39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="H40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H38:J38"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
